--- a/biology/Botanique/Euterpe_precatoria/Euterpe_precatoria.xlsx
+++ b/biology/Botanique/Euterpe_precatoria/Euterpe_precatoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euterpe precatoria est une espèce de palmiers aux feuilles pennées originaire d'Amérique du Sud et d'Amérique centrale. Ce palmier est utilisé commercialement pour produire des fruits, bien que Euterpe oleracea est plus couramment cultivé à cause de la taille plus importante de son fruit.
-Cette espèce serait l'espèce d'arbre la plus abondante de la forêt amazonienne[2]
+Cette espèce serait l'espèce d'arbre la plus abondante de la forêt amazonienne
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juillet 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juillet 2017) :
 variété Euterpe precatoria var. longivaginata
 variété Euterpe precatoria var. precatoria</t>
         </is>
